--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bosch.com\dfsrb\DfsVN\LOC\Hc\RBVH\20_EDA\04_External\00_Common\02_EDA2\db_BGSV_EDA2_Automation_Tool\DCOM\DB_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4958B77-1632-4726-8779-A173A9FFB2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB0520-5B1F-4924-95DA-481BCA43E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="540" windowWidth="24855" windowHeight="15315" tabRatio="903" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26595" yWindow="480" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="98">
   <si>
     <t>NRC</t>
   </si>
@@ -147,6 +147,9 @@
     <t>Optional</t>
   </si>
   <si>
+    <t>ffffff</t>
+  </si>
+  <si>
     <t>0a</t>
   </si>
   <si>
@@ -168,33 +171,6 @@
     <t>DID</t>
   </si>
   <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>F120</t>
-  </si>
-  <si>
-    <t>F121</t>
-  </si>
-  <si>
-    <t>F187</t>
-  </si>
-  <si>
-    <t>F18A</t>
-  </si>
-  <si>
-    <t>F18C</t>
-  </si>
-  <si>
-    <t>F190</t>
-  </si>
-  <si>
-    <t>F191</t>
-  </si>
-  <si>
-    <t>F194</t>
-  </si>
-  <si>
     <t>Information</t>
   </si>
   <si>
@@ -276,189 +252,6 @@
     <t>DID name</t>
   </si>
   <si>
-    <t>NetworkInformationDataIdentifier</t>
-  </si>
-  <si>
-    <t>FunctionSpecificationDataIdentifier</t>
-  </si>
-  <si>
-    <t>DiagnosticDefinitionDataIdentifier</t>
-  </si>
-  <si>
-    <t>CHANA_ECUSoftwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>CHANA_ECUHardwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>System Supplier Identifier</t>
-  </si>
-  <si>
-    <t>ECUSerialNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>VINDataIdentifier</t>
-  </si>
-  <si>
-    <t>FBL Version Information</t>
-  </si>
-  <si>
-    <t>FBL Requirement Specification</t>
-  </si>
-  <si>
-    <t>Fingerprint</t>
-  </si>
-  <si>
-    <t>Software Number</t>
-  </si>
-  <si>
-    <t>Calibration DataIdentifier</t>
-  </si>
-  <si>
-    <t>vehicle type</t>
-  </si>
-  <si>
-    <t>vehicle configuration</t>
-  </si>
-  <si>
-    <t>ECU Hardware version number</t>
-  </si>
-  <si>
-    <t>Supplier Software number</t>
-  </si>
-  <si>
-    <t>FAB switch</t>
-  </si>
-  <si>
-    <t>TSR switch</t>
-  </si>
-  <si>
-    <t>TLA switch</t>
-  </si>
-  <si>
-    <t>Body_height_wheelhouse_edge</t>
-  </si>
-  <si>
-    <t>Calibration Board Distance</t>
-  </si>
-  <si>
-    <t>Invalid Key Counter</t>
-  </si>
-  <si>
-    <t>Current Calibration Status</t>
-  </si>
-  <si>
-    <t>Current static calibration details</t>
-  </si>
-  <si>
-    <t>Current EOL calibration parameters</t>
-  </si>
-  <si>
-    <t>ECU Temperature</t>
-  </si>
-  <si>
-    <t>Can read the Previuos Calibration result</t>
-  </si>
-  <si>
-    <t>Can read the Previuos Previous result</t>
-  </si>
-  <si>
-    <t>ECU Supplier voltage</t>
-  </si>
-  <si>
-    <t>ProgrammingCounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProgrammingAttemptCounter </t>
-  </si>
-  <si>
-    <t>ActiveDiagnosticSessionDataIdentifier</t>
-  </si>
-  <si>
-    <t>Lane Function Configuration</t>
-  </si>
-  <si>
-    <t>F122</t>
-  </si>
-  <si>
-    <t>F189</t>
-  </si>
-  <si>
-    <t>F089</t>
-  </si>
-  <si>
-    <t>F170</t>
-  </si>
-  <si>
-    <t>F171</t>
-  </si>
-  <si>
-    <t>F184</t>
-  </si>
-  <si>
-    <t>F188</t>
-  </si>
-  <si>
-    <t>F123</t>
-  </si>
-  <si>
-    <t>F1F0</t>
-  </si>
-  <si>
-    <t>F1F4</t>
-  </si>
-  <si>
-    <t>F1F1</t>
-  </si>
-  <si>
-    <t>F1F2</t>
-  </si>
-  <si>
-    <t>F1F3</t>
-  </si>
-  <si>
-    <t>F1F5</t>
-  </si>
-  <si>
-    <t>3BAF</t>
-  </si>
-  <si>
-    <t>F1F7</t>
-  </si>
-  <si>
-    <t>F1F8</t>
-  </si>
-  <si>
-    <t>F1F9</t>
-  </si>
-  <si>
-    <t>11B7</t>
-  </si>
-  <si>
-    <t>F1FA</t>
-  </si>
-  <si>
-    <t>F1FB</t>
-  </si>
-  <si>
-    <t>11B5</t>
-  </si>
-  <si>
-    <t>0200</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>F1FD</t>
-  </si>
-  <si>
-    <t>F1FE</t>
-  </si>
-  <si>
     <t>Data_Path_Information</t>
   </si>
   <si>
@@ -528,154 +321,25 @@
     <t>// Stop DTC Setting</t>
   </si>
   <si>
-    <t>Physical</t>
-  </si>
-  <si>
-    <t>SID Support</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Create_Fault</t>
   </si>
   <si>
-    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>E_pubc_BCS_BCS_2_A_BCS_VehSpd_Pv</t>
-  </si>
-  <si>
-    <t>EnvLogInLevel</t>
-  </si>
-  <si>
     <t>Current_Session</t>
   </si>
   <si>
-    <t>f1fd</t>
-  </si>
-  <si>
     <t>Invalid_Counter</t>
   </si>
   <si>
     <t>Current_Voltage</t>
   </si>
   <si>
-    <t>0104</t>
-  </si>
-  <si>
-    <t>SAIC</t>
-  </si>
-  <si>
-    <t>AS28</t>
-  </si>
-  <si>
-    <t>R1.0</t>
-  </si>
-  <si>
-    <t>RC01</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx</t>
-  </si>
-  <si>
-    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7F</t>
-  </si>
-  <si>
-    <t>13S</t>
-  </si>
-  <si>
-    <t>13L</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>7E</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>56312E32</t>
-  </si>
-  <si>
-    <t>56312E35</t>
-  </si>
-  <si>
-    <t>56312E38</t>
-  </si>
-  <si>
-    <t>5357432E332E31.{2}</t>
-  </si>
-  <si>
-    <t>4857432E322E30.{2}</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>373931373033302D435230312D4141.{12}</t>
-  </si>
-  <si>
-    <t>53303632303220</t>
-  </si>
-  <si>
-    <t>00000000000000000000000000</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>0000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>393231323430312D43523031.{16}</t>
-  </si>
-  <si>
-    <t>48573032.{10}</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>00000000000000</t>
-  </si>
-  <si>
-    <t>ff</t>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Allow Session</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +865,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1222,52 +886,36 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>165</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>165</v>
-      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>165</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>165</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
@@ -1306,38 +954,32 @@
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>169</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B21" s="22"/>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>40</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B22" s="22"/>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>172</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B23" s="22"/>
       <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1372,83 +1014,69 @@
     </row>
     <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>173</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B31" s="22"/>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>174</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B32" s="22"/>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>175</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B33" s="22"/>
       <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>176</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B34" s="22"/>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>177</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>178</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>179</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B43" s="22"/>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>31</v>
@@ -1458,97 +1086,73 @@
       <c r="A51" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B51" s="22"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B52" s="22"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>15</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B53" s="22"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>180</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B54" s="22"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B55" s="22"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>180</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B56" s="22"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>180</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B57" s="22"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>180</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B58" s="22"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>180</v>
-      </c>
+      <c r="B59" s="22"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>15</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B60" s="22"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>180</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B61" s="22"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>180</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B62" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1560,549 +1164,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:AD111"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="N1" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N7" sqref="N7:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2138,7 +1203,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -2149,27 +1214,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -2188,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -2211,100 +1276,66 @@
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>158</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2319,11 +1350,9 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2344,11 +1373,9 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>183</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -2369,9 +1396,7 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -2392,9 +1417,7 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -2415,9 +1438,7 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -2438,9 +1459,7 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -2461,9 +1480,7 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -2484,9 +1501,7 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -2507,9 +1522,7 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -2530,9 +1543,7 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -2553,9 +1564,7 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -2574,11 +1583,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -2597,11 +1604,9 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -2631,13 +1636,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr codeName="Sheet13"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2673,7 +1678,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -2684,27 +1689,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -2723,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -2752,11 +1757,11 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2774,11 +1779,11 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2789,11 +1794,11 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2804,18 +1809,18 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2832,7 +1837,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2855,7 +1860,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3063,7 +2068,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
@@ -3084,7 +2089,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -3116,13 +2121,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3158,7 +2163,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -3169,27 +2174,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -3208,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -3237,11 +2242,11 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3259,11 +2264,11 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3274,11 +2279,11 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3289,18 +2294,18 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3317,7 +2322,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -3340,7 +2345,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3548,7 +2553,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
@@ -3569,7 +2574,492 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:V111"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="N1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="N3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="N4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="N5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="N6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -3607,7 +3097,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3643,7 +3133,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -3654,27 +3144,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -3693,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -3723,41 +3213,29 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3769,41 +3247,29 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3815,26 +3281,18 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="3"/>
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -3848,26 +3306,18 @@
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
       <c r="F6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3881,24 +3331,16 @@
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
       <c r="F7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="3"/>
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -3919,9 +3361,7 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -3942,9 +3382,7 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>184</v>
-      </c>
+      <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -3965,9 +3403,7 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
-      </c>
+      <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -3988,9 +3424,7 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -4011,9 +3445,7 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>186</v>
-      </c>
+      <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -4034,9 +3466,7 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>187</v>
-      </c>
+      <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -4057,9 +3487,7 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -4080,9 +3508,7 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -4101,11 +3527,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -4124,11 +3548,9 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -4157,7 +3579,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4193,7 +3615,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -4204,27 +3626,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -4243,13 +3665,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -4268,101 +3690,71 @@
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="7"/>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="7"/>
       <c r="E5" s="2"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -4372,11 +3764,9 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>183</v>
-      </c>
+      <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -4397,11 +3787,9 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -4422,9 +3810,7 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -4445,9 +3831,7 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -4468,9 +3852,7 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -4491,9 +3873,7 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -4514,9 +3894,7 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -4537,9 +3915,7 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -4560,9 +3936,7 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -4583,9 +3957,7 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -4606,9 +3978,7 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -4627,11 +3997,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -4650,11 +4018,9 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -4690,7 +4056,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4726,7 +4092,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -4737,27 +4103,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -4776,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -4799,48 +4165,36 @@
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="N3" s="9" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4848,41 +4202,29 @@
       <c r="B4" s="9"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4897,10 +4239,10 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="N5" s="9"/>
+      <c r="L5" s="7"/>
+      <c r="N5" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
@@ -4920,10 +4262,10 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N6" s="9"/>
+      <c r="L6" s="7"/>
+      <c r="N6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
@@ -4943,9 +4285,7 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -4966,9 +4306,7 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -4989,9 +4327,7 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -5012,9 +4348,7 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -5035,9 +4369,7 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -5058,9 +4390,7 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -5081,9 +4411,7 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -5104,9 +4432,7 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -5127,9 +4453,7 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -5148,11 +4472,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -5171,11 +4493,9 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -5211,7 +4531,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5247,7 +4567,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -5258,20 +4578,20 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
@@ -5280,7 +4600,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -5299,13 +4619,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -5329,7 +4649,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -5340,18 +4660,18 @@
       </c>
       <c r="L3" s="7"/>
       <c r="N3" s="9" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5363,7 +4683,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -5374,18 +4694,18 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5405,7 +4725,9 @@
         <v>16</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
@@ -5430,7 +4752,9 @@
         <v>17</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
@@ -5440,7 +4764,7 @@
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5658,7 +4982,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
@@ -5681,7 +5005,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -5718,8 +5042,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5757,7 +5081,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -5769,40 +5093,40 @@
       </c>
       <c r="M1" s="29"/>
       <c r="O1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
       <c r="U1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="V1" s="29"/>
       <c r="AC1" s="28" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="AD1" s="29"/>
     </row>
     <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>1</v>
@@ -5821,13 +5145,13 @@
         <v>0</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="Q2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -5849,210 +5173,124 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>192</v>
-      </c>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="3"/>
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="M3" s="7"/>
       <c r="O3" s="9" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="V3" s="7"/>
       <c r="W3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AD3" s="7"/>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>193</v>
-      </c>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="M4" s="7"/>
       <c r="O4" s="9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="V4" s="7"/>
       <c r="W4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>194</v>
-      </c>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="O5" s="9"/>
+      <c r="M5" s="7"/>
+      <c r="O5" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
-      <c r="AC5" s="9"/>
+      <c r="AC5" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>195</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="9"/>
+      <c r="M6" s="7"/>
+      <c r="O6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
@@ -6061,41 +5299,21 @@
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>196</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M7" s="7"/>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -6105,41 +5323,21 @@
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>198</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M8" s="7"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -6149,41 +5347,21 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>199</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M9" s="7"/>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -6193,41 +5371,21 @@
       <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>200</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2"/>
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -6237,41 +5395,21 @@
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>202</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2"/>
       <c r="L11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
@@ -6281,41 +5419,21 @@
       <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>190</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="2"/>
       <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -6325,41 +5443,21 @@
       <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>190</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="2"/>
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -6369,41 +5467,21 @@
       <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>190</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="2"/>
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -6413,41 +5491,21 @@
       <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>204</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="2"/>
       <c r="L15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -6457,41 +5515,21 @@
       <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>190</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="2"/>
       <c r="L16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -6501,41 +5539,21 @@
       <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="4"/>
       <c r="L17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -6545,584 +5563,224 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="18"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="18"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="18"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="18"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7144,8 +5802,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AD111"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7183,7 +5841,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -7195,40 +5853,40 @@
       </c>
       <c r="M1" s="29"/>
       <c r="O1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
       <c r="U1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="V1" s="29"/>
       <c r="AC1" s="28" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="AD1" s="29"/>
     </row>
     <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>1</v>
@@ -7247,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="Q2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -7275,210 +5933,124 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>192</v>
-      </c>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="3"/>
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="M3" s="7"/>
       <c r="O3" s="9" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="V3" s="7"/>
       <c r="W3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AD3" s="7"/>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>193</v>
-      </c>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="M4" s="7"/>
       <c r="O4" s="9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="V4" s="7"/>
       <c r="W4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>194</v>
-      </c>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="O5" s="9"/>
+      <c r="M5" s="7"/>
+      <c r="O5" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
-      <c r="AC5" s="9"/>
+      <c r="AC5" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>195</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="9"/>
+      <c r="M6" s="7"/>
+      <c r="O6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
@@ -7487,41 +6059,21 @@
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>196</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M7" s="7"/>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -7531,41 +6083,21 @@
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>198</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M8" s="7"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -7575,41 +6107,21 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>199</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M9" s="7"/>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -7619,41 +6131,21 @@
       <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>200</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2"/>
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -7663,41 +6155,21 @@
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>202</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2"/>
       <c r="L11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
@@ -7707,41 +6179,21 @@
       <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>190</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="2"/>
       <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -7751,41 +6203,21 @@
       <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>190</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="2"/>
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -7795,41 +6227,21 @@
       <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>190</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="2"/>
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -7839,41 +6251,21 @@
       <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>204</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="2"/>
       <c r="L15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -7883,41 +6275,21 @@
       <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>190</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="2"/>
       <c r="L16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -7927,41 +6299,21 @@
       <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="4"/>
       <c r="L17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -7971,584 +6323,224 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="18"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="18"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="18"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="18"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8578,7 +6570,7 @@
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8615,7 +6607,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -8627,27 +6619,27 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
       <c r="O1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
       <c r="U1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="V1" s="29"/>
     </row>
     <row r="2" spans="1:23" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -8663,19 +6655,19 @@
         <v>8</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="Q2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -8699,44 +6691,30 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
       <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="V3" s="7"/>
       <c r="W3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8748,44 +6726,30 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
       <c r="O4" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="V4" s="7"/>
       <c r="W4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8800,20 +6764,14 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
       <c r="O5" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
@@ -8830,20 +6788,14 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>183</v>
-      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
       <c r="O6" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -8860,12 +6812,8 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>187</v>
-      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -8886,12 +6834,8 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>186</v>
-      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -8912,12 +6856,8 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -8938,12 +6878,8 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -8964,12 +6900,8 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
@@ -8990,12 +6922,8 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -9016,12 +6944,8 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -9042,12 +6966,8 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -9068,12 +6988,8 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -9092,14 +7008,10 @@
       <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -9118,14 +7030,10 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -9161,7 +7069,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9199,7 +7107,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="25"/>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -9210,33 +7118,33 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -9255,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -9280,133 +7188,89 @@
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="24"/>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="24"/>
       <c r="E3" s="25" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>180</v>
-      </c>
+      <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>180</v>
-      </c>
+      <c r="D4" s="24"/>
       <c r="E4" s="25" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>190</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>180</v>
-      </c>
+      <c r="B5" s="24"/>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="24"/>
       <c r="E5" s="25" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -9416,11 +7280,9 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -9433,13 +7295,11 @@
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="24"/>
       <c r="C6" s="9"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
@@ -9449,11 +7309,9 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>183</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -9468,7 +7326,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
@@ -9478,9 +7336,7 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -9495,7 +7351,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
@@ -9505,9 +7361,7 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -9522,7 +7376,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
@@ -9532,9 +7386,7 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -9557,9 +7409,7 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -9582,9 +7432,7 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -9607,9 +7455,7 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -9632,9 +7478,7 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -9657,9 +7501,7 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -9682,9 +7524,7 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -9705,11 +7545,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -9730,11 +7568,9 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bosch.com\dfsrb\DfsVN\LOC\Hc\RBVH\20_EDA\04_External\00_Common\02_EDA2\db_BGSV_EDA2_Automation_Tool\DCOM\DB_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB0520-5B1F-4924-95DA-481BCA43E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD82A28-DC11-442F-AFEE-454D5D04131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26595" yWindow="480" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="990" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="231">
   <si>
     <t>NRC</t>
   </si>
@@ -340,6 +340,405 @@
   </si>
   <si>
     <t>Allow Session</t>
+  </si>
+  <si>
+    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>E_pubc_BCS_BCS_2_A_BCS_VehSpd_Pv</t>
+  </si>
+  <si>
+    <t>EnvLogInLevel</t>
+  </si>
+  <si>
+    <t>f1fd</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>SAIC</t>
+  </si>
+  <si>
+    <t>AS28</t>
+  </si>
+  <si>
+    <t>R1.0</t>
+  </si>
+  <si>
+    <t>RC01</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx</t>
+  </si>
+  <si>
+    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>13S</t>
+  </si>
+  <si>
+    <t>13L</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Crank</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>NetworkInformationDataIdentifier</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>56312E32</t>
+  </si>
+  <si>
+    <t>FunctionSpecificationDataIdentifier</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>56312E35</t>
+  </si>
+  <si>
+    <t>DiagnosticDefinitionDataIdentifier</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>56312E38</t>
+  </si>
+  <si>
+    <t>CHANA_ECUSoftwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F189</t>
+  </si>
+  <si>
+    <t>5357432E332E31.{2}</t>
+  </si>
+  <si>
+    <t>CHANA_ECUHardwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F089</t>
+  </si>
+  <si>
+    <t>4857432E322E30.{2}</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>F187</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>373931373033302D435230312D4141.{12}</t>
+  </si>
+  <si>
+    <t>System Supplier Identifier</t>
+  </si>
+  <si>
+    <t>F18A</t>
+  </si>
+  <si>
+    <t>53303632303220</t>
+  </si>
+  <si>
+    <t>ECUSerialNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F18C</t>
+  </si>
+  <si>
+    <t>00000000000000000000000000</t>
+  </si>
+  <si>
+    <t>VINDataIdentifier</t>
+  </si>
+  <si>
+    <t>F190</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>FBL Version Information</t>
+  </si>
+  <si>
+    <t>F170</t>
+  </si>
+  <si>
+    <t>FBL Requirement Specification</t>
+  </si>
+  <si>
+    <t>F171</t>
+  </si>
+  <si>
+    <t>Fingerprint</t>
+  </si>
+  <si>
+    <t>F184</t>
+  </si>
+  <si>
+    <t>Software Number</t>
+  </si>
+  <si>
+    <t>F188</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>393231323430312D43523031.{16}</t>
+  </si>
+  <si>
+    <t>Calibration DataIdentifier</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>vehicle type</t>
+  </si>
+  <si>
+    <t>F1F0</t>
+  </si>
+  <si>
+    <t>vehicle configuration</t>
+  </si>
+  <si>
+    <t>F1F4</t>
+  </si>
+  <si>
+    <t>ECU Hardware version number</t>
+  </si>
+  <si>
+    <t>F191</t>
+  </si>
+  <si>
+    <t>48573032.{10}</t>
+  </si>
+  <si>
+    <t>Supplier Software number</t>
+  </si>
+  <si>
+    <t>F194</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>FAB switch</t>
+  </si>
+  <si>
+    <t>F1F1</t>
+  </si>
+  <si>
+    <t>TSR switch</t>
+  </si>
+  <si>
+    <t>F1F2</t>
+  </si>
+  <si>
+    <t>TLA switch</t>
+  </si>
+  <si>
+    <t>F1F3</t>
+  </si>
+  <si>
+    <t>Body_height_wheelhouse_edge</t>
+  </si>
+  <si>
+    <t>F1F5</t>
+  </si>
+  <si>
+    <t>Calibration Board Distance</t>
+  </si>
+  <si>
+    <t>3BAF</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Invalid Key Counter</t>
+  </si>
+  <si>
+    <t>Current Calibration Status</t>
+  </si>
+  <si>
+    <t>F1F7</t>
+  </si>
+  <si>
+    <t>Current static calibration details</t>
+  </si>
+  <si>
+    <t>F1F8</t>
+  </si>
+  <si>
+    <t>00000000000000</t>
+  </si>
+  <si>
+    <t>Current EOL calibration parameters</t>
+  </si>
+  <si>
+    <t>F1F9</t>
+  </si>
+  <si>
+    <t>ECU Temperature</t>
+  </si>
+  <si>
+    <t>11B7</t>
+  </si>
+  <si>
+    <t>Can read the Previuos Calibration result</t>
+  </si>
+  <si>
+    <t>F1FA</t>
+  </si>
+  <si>
+    <t>Can read the Previuos Previous result</t>
+  </si>
+  <si>
+    <t>F1FB</t>
+  </si>
+  <si>
+    <t>ECU Supplier voltage</t>
+  </si>
+  <si>
+    <t>11B5</t>
+  </si>
+  <si>
+    <t>ProgrammingCounter</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProgrammingAttemptCounter </t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>ActiveDiagnosticSessionDataIdentifier</t>
+  </si>
+  <si>
+    <t>F1FD</t>
+  </si>
+  <si>
+    <t>Lane Function Configuration</t>
+  </si>
+  <si>
+    <t>F1FE</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>Transportation mode</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>MTOC</t>
+  </si>
+  <si>
+    <t>3131313131313131313131313131313131</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>Distance between target and vehicle</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>Variant Coding</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>function configuration</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>Manufactory mode</t>
   </si>
 </sst>
 </file>
@@ -893,29 +1292,45 @@
       <c r="A2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
@@ -965,21 +1380,27 @@
       <c r="A21" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="22" t="s">
+        <v>104</v>
+      </c>
       <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1025,28 +1446,36 @@
       <c r="A31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="22"/>
+      <c r="B31" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
@@ -1060,19 +1489,25 @@
       <c r="A41" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="22" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="22" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
@@ -1086,73 +1521,97 @@
       <c r="A51" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="22"/>
+      <c r="B55" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="22"/>
+      <c r="B59" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="22"/>
+      <c r="B60" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="22"/>
+      <c r="B61" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1751,7 +2210,7 @@
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -1763,25 +2222,41 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1800,25 +2275,43 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1835,14 +2328,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -1858,14 +2361,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -1881,12 +2394,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -1902,12 +2427,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -1923,12 +2460,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -1944,12 +2493,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -1965,12 +2526,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -1986,12 +2559,24 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -2007,12 +2592,24 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -2028,12 +2625,24 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -2049,7 +2658,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -2070,7 +2681,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -2091,7 +2704,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -3215,25 +3830,41 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -3249,25 +3880,43 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -3283,21 +3932,37 @@
       <c r="F5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -3308,21 +3973,37 @@
       <c r="F6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -3333,19 +4014,37 @@
       <c r="F7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -3361,12 +4060,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -3382,12 +4093,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -3403,12 +4126,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -3424,12 +4159,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -3445,12 +4192,24 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -3466,12 +4225,24 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -3487,12 +4258,24 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -3508,7 +4291,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -3529,7 +4314,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -3550,7 +4337,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -3690,30 +4479,48 @@
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -3722,30 +4529,50 @@
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -3754,7 +4581,9 @@
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -3764,14 +4593,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -3787,14 +4626,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -3810,12 +4659,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -3831,12 +4692,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -3852,12 +4725,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -3873,12 +4758,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -3894,12 +4791,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -3915,12 +4824,24 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -3936,12 +4857,24 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -3957,12 +4890,24 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -3978,7 +4923,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -3999,7 +4946,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -4020,7 +4969,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -4174,25 +5125,41 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -4204,25 +5171,43 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -4239,14 +5224,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -4262,14 +5257,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -4285,12 +5290,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -4306,12 +5323,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -4327,12 +5356,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -4348,12 +5389,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -4369,12 +5422,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -4390,12 +5455,24 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -4411,12 +5488,24 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -4432,12 +5521,24 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -4453,7 +5554,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -4474,7 +5577,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -4495,7 +5600,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -5173,339 +6280,731 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="O3" s="9" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7"/>
+      <c r="AD3" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AC4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
       <c r="AC5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>153</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>157</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S12" s="7"/>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S13" s="7"/>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S14" s="7"/>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -5515,21 +7014,41 @@
       <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -5539,21 +7058,41 @@
       <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="18"/>
+      <c r="A17" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -5563,224 +7102,584 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="A18" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="A19" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="A20" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="A21" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="A22" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="A23" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="A24" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="A25" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="A26" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="A27" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="18"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="A28" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="18"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="A29" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="A30" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="A31" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="A32" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="A33" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="A34" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="A35" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="A36" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="A37" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5933,295 +7832,636 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="O3" s="9" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7"/>
+      <c r="AD3" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AC4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
       <c r="AC5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>220</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>220</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>224</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>224</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S12" s="7"/>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S13" s="7"/>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
@@ -6241,11 +8481,24 @@
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S14" s="7"/>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
@@ -6265,7 +8518,9 @@
       <c r="L15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -6289,7 +8544,9 @@
       <c r="L16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -6313,7 +8570,9 @@
       <c r="L17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -6693,26 +8952,45 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="O3" s="9" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
@@ -6728,26 +9006,47 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
@@ -6764,14 +9063,27 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
@@ -6788,14 +9100,27 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -6812,12 +9137,27 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
@@ -6834,12 +9174,27 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
@@ -6856,12 +9211,27 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
@@ -6878,12 +9248,27 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
@@ -6900,12 +9285,27 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
@@ -6922,12 +9322,27 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S12" s="7"/>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
@@ -6944,12 +9359,27 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S13" s="7"/>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
@@ -6966,12 +9396,27 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="S14" s="7"/>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
@@ -6988,8 +9433,12 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -7010,8 +9459,12 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -7032,8 +9485,12 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -7188,36 +9645,56 @@
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="25" t="s">
         <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -7226,36 +9703,58 @@
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="E4" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -7264,11 +9763,15 @@
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="25" t="s">
         <v>83</v>
       </c>
@@ -7280,14 +9783,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -7295,7 +9808,9 @@
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
@@ -7309,14 +9824,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -7336,12 +9861,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -7361,12 +9898,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -7386,12 +9935,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -7409,12 +9970,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -7432,12 +10005,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -7455,12 +10040,24 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -7478,12 +10075,24 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -7501,12 +10110,24 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -7524,7 +10145,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -7547,7 +10170,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -7570,7 +10195,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD82A28-DC11-442F-AFEE-454D5D04131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E880C899-4AC5-420B-9E93-8FCB67E8CC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="990" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27285" yWindow="2640" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="235">
   <si>
     <t>NRC</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Selected_Service</t>
   </si>
   <si>
-    <t xml:space="preserve">Time_Out </t>
-  </si>
-  <si>
     <t>CanTP</t>
   </si>
   <si>
@@ -342,15 +339,27 @@
     <t>Allow Session</t>
   </si>
   <si>
+    <t>Invalid Value</t>
+  </si>
+  <si>
+    <t>Valid Value</t>
+  </si>
+  <si>
+    <t>DTC ID</t>
+  </si>
+  <si>
+    <t>d78687</t>
+  </si>
+  <si>
     <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>E_pubc_BCS_BCS_2_A_BCS_VehSpd_Pv</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>EnvLogInLevel</t>
   </si>
   <si>
@@ -414,9 +423,6 @@
     <t>37</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Crank</t>
   </si>
   <si>
@@ -696,49 +702,55 @@
     <t>ff</t>
   </si>
   <si>
+    <t>Transportation mode</t>
+  </si>
+  <si>
     <t>0140</t>
   </si>
   <si>
-    <t>Transportation mode</t>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>MTOC</t>
   </si>
   <si>
     <t>F102</t>
   </si>
   <si>
-    <t>MTOC</t>
-  </si>
-  <si>
     <t>3131313131313131313131313131313131</t>
   </si>
   <si>
     <t>VIN</t>
   </si>
   <si>
+    <t>Distance between target and vehicle</t>
+  </si>
+  <si>
     <t>0308</t>
   </si>
   <si>
-    <t>Distance between target and vehicle</t>
-  </si>
-  <si>
     <t>ffff</t>
   </si>
   <si>
+    <t>Variant Coding</t>
+  </si>
+  <si>
     <t>0101</t>
   </si>
   <si>
-    <t>Variant Coding</t>
+    <t>function configuration</t>
   </si>
   <si>
     <t>0100</t>
   </si>
   <si>
-    <t>function configuration</t>
+    <t>Manufactory mode</t>
   </si>
   <si>
     <t>0110</t>
-  </si>
-  <si>
-    <t>Manufactory mode</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1277,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1285,18 +1297,18 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,10 +1316,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1315,10 +1327,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1326,41 +1338,41 @@
         <v>61</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
@@ -1378,28 +1390,28 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C23" s="20"/>
     </row>
@@ -1435,7 +1447,7 @@
     </row>
     <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>41</v>
@@ -1444,10 +1456,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C31" s="20"/>
     </row>
@@ -1456,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C32" s="20"/>
     </row>
@@ -1465,7 +1477,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C33" s="20"/>
     </row>
@@ -1474,7 +1486,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -1487,26 +1499,26 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1607,7 +1619,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>15</v>
@@ -1718,7 +1730,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -1744,25 +1756,41 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1774,25 +1802,43 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1809,14 +1855,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -1832,14 +1888,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -1855,12 +1921,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -1876,12 +1954,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -1897,12 +1987,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -1918,12 +2020,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -1939,12 +2053,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -1960,12 +2086,24 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -1981,12 +2119,24 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -2002,12 +2152,24 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -2023,7 +2185,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -2044,7 +2208,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -2065,7 +2231,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -2193,7 +2361,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -2210,23 +2378,23 @@
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -2236,20 +2404,20 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
@@ -2269,17 +2437,17 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -2289,7 +2457,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
@@ -2298,7 +2466,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -2310,7 +2478,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -2329,7 +2497,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>58</v>
@@ -2338,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -2362,7 +2530,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>58</v>
@@ -2371,7 +2539,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -2395,22 +2563,22 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -2428,22 +2596,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -2461,22 +2629,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -2494,22 +2662,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -2527,22 +2695,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -2560,22 +2728,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -2593,22 +2761,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -2626,22 +2794,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -2659,7 +2827,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -2682,7 +2850,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -2705,7 +2873,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -2834,7 +3002,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -2857,7 +3025,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -2894,7 +3062,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -2937,7 +3105,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2960,7 +3128,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3319,7 +3487,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -3342,7 +3510,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -3379,7 +3547,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -3422,7 +3590,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -3445,7 +3613,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3804,7 +3972,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -3850,20 +4018,20 @@
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -3894,7 +4062,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
@@ -3903,7 +4071,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -3915,7 +4083,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -3936,7 +4104,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>15</v>
@@ -3946,7 +4114,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>58</v>
@@ -3955,7 +4123,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -3980,7 +4148,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
@@ -3996,7 +4164,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -4012,7 +4180,7 @@
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
       <c r="F7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4034,16 +4202,16 @@
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -4061,22 +4229,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -4094,22 +4262,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -4127,22 +4295,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -4163,19 +4331,19 @@
         <v>12</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -4193,22 +4361,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -4226,22 +4394,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -4259,22 +4427,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -4292,7 +4460,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -4315,7 +4483,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -4338,7 +4506,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -4460,7 +4628,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -4500,20 +4668,20 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
@@ -4530,7 +4698,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -4559,7 +4727,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -4571,7 +4739,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -4594,7 +4762,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>58</v>
@@ -4603,7 +4771,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -4636,7 +4804,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -4660,22 +4828,22 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -4693,22 +4861,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -4726,22 +4894,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -4759,22 +4927,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -4792,22 +4960,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -4825,22 +4993,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -4858,22 +5026,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -4891,22 +5059,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -4924,7 +5092,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -4947,7 +5115,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -4970,7 +5138,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -5099,7 +5267,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -5129,7 +5297,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -5139,26 +5307,26 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -5175,7 +5343,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -5194,7 +5362,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -5206,7 +5374,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -5225,7 +5393,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>58</v>
@@ -5234,7 +5402,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -5258,7 +5426,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>58</v>
@@ -5267,7 +5435,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -5291,22 +5459,22 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -5324,22 +5492,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -5357,22 +5525,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -5390,22 +5558,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -5423,22 +5591,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -5456,22 +5624,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -5489,22 +5657,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -5522,22 +5690,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -5555,7 +5723,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -5578,7 +5746,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -5601,7 +5769,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -5732,7 +5900,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -5833,7 +6001,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -5860,7 +6028,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -6147,10 +6315,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AC5"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6172,14 +6340,16 @@
     <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
     <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
     <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.85546875" style="6" customWidth="1"/>
     <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
     <col min="29" max="29" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -6210,12 +6380,12 @@
         <v>59</v>
       </c>
       <c r="V1" s="29"/>
-      <c r="AC1" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD1" s="29"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="29"/>
+    </row>
+    <row r="2" spans="1:25" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>67</v>
       </c>
@@ -6258,7 +6428,7 @@
         <v>65</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -6272,25 +6442,25 @@
       <c r="V2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="7" t="s">
@@ -6303,7 +6473,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -6313,50 +6483,49 @@
         <v>15</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="P3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="14"/>
       <c r="R3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
@@ -6369,7 +6538,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -6381,50 +6550,49 @@
       <c r="M4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="P4" s="14" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="R4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
@@ -6437,7 +6605,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
@@ -6447,45 +6615,44 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="14" t="s">
-        <v>124</v>
-      </c>
       <c r="Q5" s="14" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
-      <c r="AC5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="7" t="s">
@@ -6498,7 +6665,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -6510,37 +6677,36 @@
       <c r="M6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="Q6" s="14" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="R6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
@@ -6553,7 +6719,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>15</v>
@@ -6563,39 +6729,38 @@
         <v>21</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="P7" s="14" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S7" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
@@ -6608,7 +6773,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>15</v>
@@ -6618,39 +6783,38 @@
         <v>18</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
@@ -6673,39 +6837,38 @@
         <v>22</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
@@ -6718,7 +6881,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
@@ -6728,39 +6891,38 @@
         <v>23</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
@@ -6773,7 +6935,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>15</v>
@@ -6783,39 +6945,38 @@
         <v>24</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S11" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7" t="s">
@@ -6828,7 +6989,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -6838,39 +6999,38 @@
         <v>25</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
@@ -6893,39 +7053,38 @@
         <v>9</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S13" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="7" t="s">
@@ -6938,7 +7097,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>15</v>
@@ -6948,39 +7107,38 @@
         <v>10</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S14" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
@@ -7003,7 +7161,7 @@
         <v>26</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
@@ -7013,18 +7171,18 @@
       <c r="U15" s="9"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>166</v>
-      </c>
       <c r="D16" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
@@ -7037,7 +7195,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>15</v>
@@ -7047,7 +7205,7 @@
         <v>35</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
@@ -7059,10 +7217,10 @@
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>15</v>
@@ -7091,7 +7249,7 @@
         <v>54</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
@@ -7103,10 +7261,10 @@
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>15</v>
@@ -7124,7 +7282,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -7132,16 +7290,16 @@
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -7153,7 +7311,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>15</v>
@@ -7161,16 +7319,16 @@
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -7182,7 +7340,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>15</v>
@@ -7190,10 +7348,10 @@
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>15</v>
@@ -7211,7 +7369,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -7219,10 +7377,10 @@
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>15</v>
@@ -7240,7 +7398,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>15</v>
@@ -7248,10 +7406,10 @@
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
@@ -7269,7 +7427,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>15</v>
@@ -7277,16 +7435,16 @@
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
@@ -7298,7 +7456,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>15</v>
@@ -7306,16 +7464,16 @@
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
@@ -7327,7 +7485,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>15</v>
@@ -7335,16 +7493,16 @@
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
@@ -7356,7 +7514,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>15</v>
@@ -7364,10 +7522,10 @@
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>15</v>
@@ -7385,7 +7543,7 @@
         <v>15</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>15</v>
@@ -7393,16 +7551,16 @@
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
@@ -7414,7 +7572,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>15</v>
@@ -7422,16 +7580,16 @@
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
@@ -7443,7 +7601,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>15</v>
@@ -7451,16 +7609,16 @@
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
@@ -7472,7 +7630,7 @@
         <v>15</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -7480,10 +7638,10 @@
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>15</v>
@@ -7501,7 +7659,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>15</v>
@@ -7509,10 +7667,10 @@
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>15</v>
@@ -7530,7 +7688,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>15</v>
@@ -7538,16 +7696,16 @@
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
@@ -7559,7 +7717,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>15</v>
@@ -7567,16 +7725,16 @@
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
@@ -7596,16 +7754,16 @@
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
@@ -7625,16 +7783,16 @@
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
@@ -7654,16 +7812,16 @@
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
@@ -7675,7 +7833,7 @@
         <v>15</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>15</v>
@@ -7683,7 +7841,7 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
@@ -7699,75 +7857,79 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AD111"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AC5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.140625" style="5" customWidth="1"/>
     <col min="2" max="3" width="14.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="18.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="35.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="18.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
+    <col min="16" max="18" width="18.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="6" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="28" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="29"/>
+      <c r="P1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="29"/>
+      <c r="V1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="AC1" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD1" s="29"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W1" s="29"/>
+      <c r="Y1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:26" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>67</v>
       </c>
@@ -7778,1030 +7940,1078 @@
         <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="R2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="K3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P3" s="14"/>
       <c r="Q3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="U3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E4" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="Q4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E5" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="9" t="s">
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="Q5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="7"/>
-      <c r="AC5" s="9" t="s">
+      <c r="V5" s="9"/>
+      <c r="W5" s="7"/>
+      <c r="Y5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="7"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>126</v>
-      </c>
       <c r="Q7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S7" s="7"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="D8" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>127</v>
+      <c r="N8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" s="7"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E9" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>128</v>
+      <c r="N9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S9" s="7"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="D10" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>122</v>
+      <c r="N10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="7"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E11" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>122</v>
+      <c r="N11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S11" s="7"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E12" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>122</v>
+      <c r="N12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" s="7"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E13" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="9" t="s">
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>122</v>
+      <c r="N13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S13" s="7"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="7"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>122</v>
+      <c r="N14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S14" s="7"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V14" s="9"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="14"/>
+      <c r="N15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="9"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="7"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="7"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="14"/>
+      <c r="N16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="9"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="14"/>
       <c r="S16" s="7"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="7"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="7"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="14"/>
+      <c r="N17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="9"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="7"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="7"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="18"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="18"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="18"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="18"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="18"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="18"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="18"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8811,12 +9021,12 @@
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8914,10 +9124,10 @@
         <v>8</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>57</v>
@@ -8926,7 +9136,7 @@
         <v>65</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -8953,10 +9163,10 @@
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -8966,30 +9176,29 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="P3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="14"/>
       <c r="R3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
@@ -9007,45 +9216,44 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="P4" s="14" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="R4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
@@ -9069,22 +9277,21 @@
       <c r="M5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="14" t="s">
-        <v>124</v>
-      </c>
       <c r="Q5" s="14" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
     </row>
@@ -9101,27 +9308,26 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="Q6" s="14" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="R6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
@@ -9138,27 +9344,26 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="P7" s="14" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S7" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
@@ -9175,27 +9380,26 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
@@ -9212,27 +9416,26 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
@@ -9249,27 +9452,26 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
@@ -9286,27 +9488,26 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S11" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
@@ -9323,27 +9524,26 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
@@ -9360,27 +9560,26 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S13" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
@@ -9397,27 +9596,26 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S14" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
@@ -9434,10 +9632,10 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
@@ -9460,10 +9658,10 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
@@ -9486,10 +9684,10 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
@@ -9588,13 +9786,13 @@
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>31</v>
@@ -9626,7 +9824,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -9655,16 +9853,16 @@
         <v>15</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -9674,20 +9872,20 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
@@ -9704,25 +9902,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -9732,7 +9930,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
@@ -9741,7 +9939,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -9753,7 +9951,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -9764,7 +9962,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
@@ -9773,7 +9971,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -9793,7 +9991,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -9814,7 +10012,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
@@ -9825,7 +10023,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>58</v>
@@ -9834,7 +10032,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -9851,7 +10049,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
@@ -9868,16 +10066,16 @@
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -9888,7 +10086,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
@@ -9902,19 +10100,19 @@
         <v>12</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -9925,7 +10123,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
@@ -9936,22 +10134,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -9971,22 +10169,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -10006,22 +10204,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -10041,22 +10239,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -10076,22 +10274,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -10111,22 +10309,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -10146,7 +10344,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -10171,7 +10369,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -10196,7 +10394,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E880C899-4AC5-420B-9E93-8FCB67E8CC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21AB5416-6B0F-457E-856B-1D81FAEB3A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27285" yWindow="2640" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,409 +348,409 @@
     <t>DTC ID</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>EnvLogInLevel</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>SAIC</t>
+  </si>
+  <si>
+    <t>AS28</t>
+  </si>
+  <si>
+    <t>R1.0</t>
+  </si>
+  <si>
+    <t>RC01</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx</t>
+  </si>
+  <si>
+    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>13S</t>
+  </si>
+  <si>
+    <t>13L</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Crank</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>NetworkInformationDataIdentifier</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>56312E32</t>
+  </si>
+  <si>
+    <t>FunctionSpecificationDataIdentifier</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>56312E35</t>
+  </si>
+  <si>
+    <t>DiagnosticDefinitionDataIdentifier</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>56312E38</t>
+  </si>
+  <si>
+    <t>CHANA_ECUSoftwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F189</t>
+  </si>
+  <si>
+    <t>5357432E332E31.{2}</t>
+  </si>
+  <si>
+    <t>CHANA_ECUHardwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F089</t>
+  </si>
+  <si>
+    <t>4857432E322E30.{2}</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>F187</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>373931373033302D435230312D4141.{12}</t>
+  </si>
+  <si>
+    <t>System Supplier Identifier</t>
+  </si>
+  <si>
+    <t>F18A</t>
+  </si>
+  <si>
+    <t>53303632303220</t>
+  </si>
+  <si>
+    <t>ECUSerialNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F18C</t>
+  </si>
+  <si>
+    <t>00000000000000000000000000</t>
+  </si>
+  <si>
+    <t>VINDataIdentifier</t>
+  </si>
+  <si>
+    <t>F190</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>FBL Version Information</t>
+  </si>
+  <si>
+    <t>F170</t>
+  </si>
+  <si>
+    <t>FBL Requirement Specification</t>
+  </si>
+  <si>
+    <t>F171</t>
+  </si>
+  <si>
+    <t>Fingerprint</t>
+  </si>
+  <si>
+    <t>F184</t>
+  </si>
+  <si>
+    <t>Software Number</t>
+  </si>
+  <si>
+    <t>F188</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>393231323430312D43523031.{16}</t>
+  </si>
+  <si>
+    <t>Calibration DataIdentifier</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>vehicle type</t>
+  </si>
+  <si>
+    <t>F1F0</t>
+  </si>
+  <si>
+    <t>vehicle configuration</t>
+  </si>
+  <si>
+    <t>F1F4</t>
+  </si>
+  <si>
+    <t>ECU Hardware version number</t>
+  </si>
+  <si>
+    <t>F191</t>
+  </si>
+  <si>
+    <t>48573032.{10}</t>
+  </si>
+  <si>
+    <t>Supplier Software number</t>
+  </si>
+  <si>
+    <t>F194</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>FAB switch</t>
+  </si>
+  <si>
+    <t>F1F1</t>
+  </si>
+  <si>
+    <t>TSR switch</t>
+  </si>
+  <si>
+    <t>F1F2</t>
+  </si>
+  <si>
+    <t>TLA switch</t>
+  </si>
+  <si>
+    <t>F1F3</t>
+  </si>
+  <si>
+    <t>Body_height_wheelhouse_edge</t>
+  </si>
+  <si>
+    <t>F1F5</t>
+  </si>
+  <si>
+    <t>Calibration Board Distance</t>
+  </si>
+  <si>
+    <t>3BAF</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Invalid Key Counter</t>
+  </si>
+  <si>
+    <t>Current Calibration Status</t>
+  </si>
+  <si>
+    <t>F1F7</t>
+  </si>
+  <si>
+    <t>Current static calibration details</t>
+  </si>
+  <si>
+    <t>F1F8</t>
+  </si>
+  <si>
+    <t>00000000000000</t>
+  </si>
+  <si>
+    <t>Current EOL calibration parameters</t>
+  </si>
+  <si>
+    <t>F1F9</t>
+  </si>
+  <si>
+    <t>ECU Temperature</t>
+  </si>
+  <si>
+    <t>11B7</t>
+  </si>
+  <si>
+    <t>Can read the Previuos Calibration result</t>
+  </si>
+  <si>
+    <t>F1FA</t>
+  </si>
+  <si>
+    <t>Can read the Previuos Previous result</t>
+  </si>
+  <si>
+    <t>F1FB</t>
+  </si>
+  <si>
+    <t>ECU Supplier voltage</t>
+  </si>
+  <si>
+    <t>11B5</t>
+  </si>
+  <si>
+    <t>ProgrammingCounter</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProgrammingAttemptCounter </t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>ActiveDiagnosticSessionDataIdentifier</t>
+  </si>
+  <si>
+    <t>F1FD</t>
+  </si>
+  <si>
+    <t>Lane Function Configuration</t>
+  </si>
+  <si>
+    <t>F1FE</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>Transportation mode</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>MTOC</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>3131313131313131313131313131313131</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Distance between target and vehicle</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>Variant Coding</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>function configuration</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>Manufactory mode</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
+  </si>
+  <si>
     <t>d78687</t>
   </si>
   <si>
-    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
+    <t>f1fd</t>
+  </si>
+  <si>
+    <t>0104</t>
   </si>
   <si>
     <t>E_pubc_BCS_BCS_2_A_BCS_VehSpd_Pv</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>EnvLogInLevel</t>
-  </si>
-  <si>
-    <t>f1fd</t>
-  </si>
-  <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>0104</t>
-  </si>
-  <si>
-    <t>SAIC</t>
-  </si>
-  <si>
-    <t>AS28</t>
-  </si>
-  <si>
-    <t>R1.0</t>
-  </si>
-  <si>
-    <t>RC01</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx</t>
-  </si>
-  <si>
-    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7F</t>
-  </si>
-  <si>
-    <t>13S</t>
-  </si>
-  <si>
-    <t>13L</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>7E</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Crank</t>
-  </si>
-  <si>
-    <t>Running</t>
-  </si>
-  <si>
-    <t>Reverse</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>NetworkInformationDataIdentifier</t>
-  </si>
-  <si>
-    <t>F120</t>
-  </si>
-  <si>
-    <t>56312E32</t>
-  </si>
-  <si>
-    <t>FunctionSpecificationDataIdentifier</t>
-  </si>
-  <si>
-    <t>F121</t>
-  </si>
-  <si>
-    <t>56312E35</t>
-  </si>
-  <si>
-    <t>DiagnosticDefinitionDataIdentifier</t>
-  </si>
-  <si>
-    <t>F122</t>
-  </si>
-  <si>
-    <t>56312E38</t>
-  </si>
-  <si>
-    <t>CHANA_ECUSoftwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>F189</t>
-  </si>
-  <si>
-    <t>5357432E332E31.{2}</t>
-  </si>
-  <si>
-    <t>CHANA_ECUHardwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>F089</t>
-  </si>
-  <si>
-    <t>4857432E322E30.{2}</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>F187</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>373931373033302D435230312D4141.{12}</t>
-  </si>
-  <si>
-    <t>System Supplier Identifier</t>
-  </si>
-  <si>
-    <t>F18A</t>
-  </si>
-  <si>
-    <t>53303632303220</t>
-  </si>
-  <si>
-    <t>ECUSerialNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>F18C</t>
-  </si>
-  <si>
-    <t>00000000000000000000000000</t>
-  </si>
-  <si>
-    <t>VINDataIdentifier</t>
-  </si>
-  <si>
-    <t>F190</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>0000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>FBL Version Information</t>
-  </si>
-  <si>
-    <t>F170</t>
-  </si>
-  <si>
-    <t>FBL Requirement Specification</t>
-  </si>
-  <si>
-    <t>F171</t>
-  </si>
-  <si>
-    <t>Fingerprint</t>
-  </si>
-  <si>
-    <t>F184</t>
-  </si>
-  <si>
-    <t>Software Number</t>
-  </si>
-  <si>
-    <t>F188</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>393231323430312D43523031.{16}</t>
-  </si>
-  <si>
-    <t>Calibration DataIdentifier</t>
-  </si>
-  <si>
-    <t>F123</t>
-  </si>
-  <si>
-    <t>vehicle type</t>
-  </si>
-  <si>
-    <t>F1F0</t>
-  </si>
-  <si>
-    <t>vehicle configuration</t>
-  </si>
-  <si>
-    <t>F1F4</t>
-  </si>
-  <si>
-    <t>ECU Hardware version number</t>
-  </si>
-  <si>
-    <t>F191</t>
-  </si>
-  <si>
-    <t>48573032.{10}</t>
-  </si>
-  <si>
-    <t>Supplier Software number</t>
-  </si>
-  <si>
-    <t>F194</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>FAB switch</t>
-  </si>
-  <si>
-    <t>F1F1</t>
-  </si>
-  <si>
-    <t>TSR switch</t>
-  </si>
-  <si>
-    <t>F1F2</t>
-  </si>
-  <si>
-    <t>TLA switch</t>
-  </si>
-  <si>
-    <t>F1F3</t>
-  </si>
-  <si>
-    <t>Body_height_wheelhouse_edge</t>
-  </si>
-  <si>
-    <t>F1F5</t>
-  </si>
-  <si>
-    <t>Calibration Board Distance</t>
-  </si>
-  <si>
-    <t>3BAF</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>Invalid Key Counter</t>
-  </si>
-  <si>
-    <t>Current Calibration Status</t>
-  </si>
-  <si>
-    <t>F1F7</t>
-  </si>
-  <si>
-    <t>Current static calibration details</t>
-  </si>
-  <si>
-    <t>F1F8</t>
-  </si>
-  <si>
-    <t>00000000000000</t>
-  </si>
-  <si>
-    <t>Current EOL calibration parameters</t>
-  </si>
-  <si>
-    <t>F1F9</t>
-  </si>
-  <si>
-    <t>ECU Temperature</t>
-  </si>
-  <si>
-    <t>11B7</t>
-  </si>
-  <si>
-    <t>Can read the Previuos Calibration result</t>
-  </si>
-  <si>
-    <t>F1FA</t>
-  </si>
-  <si>
-    <t>Can read the Previuos Previous result</t>
-  </si>
-  <si>
-    <t>F1FB</t>
-  </si>
-  <si>
-    <t>ECU Supplier voltage</t>
-  </si>
-  <si>
-    <t>11B5</t>
-  </si>
-  <si>
-    <t>ProgrammingCounter</t>
-  </si>
-  <si>
-    <t>0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProgrammingAttemptCounter </t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>ActiveDiagnosticSessionDataIdentifier</t>
-  </si>
-  <si>
-    <t>F1FD</t>
-  </si>
-  <si>
-    <t>Lane Function Configuration</t>
-  </si>
-  <si>
-    <t>F1FE</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>Transportation mode</t>
-  </si>
-  <si>
-    <t>0140</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>MTOC</t>
-  </si>
-  <si>
-    <t>F102</t>
-  </si>
-  <si>
-    <t>3131313131313131313131313131313131</t>
-  </si>
-  <si>
-    <t>VIN</t>
-  </si>
-  <si>
-    <t>Distance between target and vehicle</t>
-  </si>
-  <si>
-    <t>0308</t>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>Variant Coding</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>function configuration</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>Manufactory mode</t>
-  </si>
-  <si>
-    <t>0110</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1305,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1316,10 +1316,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1327,10 +1327,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1338,10 +1338,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
         <v>92</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="C21" s="20"/>
     </row>
@@ -1402,7 +1402,7 @@
         <v>93</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" s="20"/>
     </row>
@@ -1411,7 +1411,7 @@
         <v>94</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="C23" s="20"/>
     </row>
@@ -1459,7 +1459,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C31" s="20"/>
     </row>
@@ -1468,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C32" s="20"/>
     </row>
@@ -1477,7 +1477,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C33" s="20"/>
     </row>
@@ -1486,7 +1486,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>75</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1510,7 +1510,7 @@
         <v>76</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1518,7 +1518,7 @@
         <v>77</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1770,20 +1770,20 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
@@ -1825,7 +1825,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -1837,7 +1837,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -1856,7 +1856,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>58</v>
@@ -1865,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -1889,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>58</v>
@@ -1898,7 +1898,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -1922,22 +1922,22 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -1955,22 +1955,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -1988,22 +1988,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -2021,22 +2021,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -2054,22 +2054,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -2087,22 +2087,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -2120,22 +2120,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -2153,22 +2153,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -2186,7 +2186,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -2209,7 +2209,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -2232,7 +2232,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -2391,10 +2391,10 @@
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -2404,20 +2404,20 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
@@ -2444,10 +2444,10 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -2457,7 +2457,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
@@ -2466,7 +2466,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -2478,7 +2478,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -2530,7 +2530,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>58</v>
@@ -2539,7 +2539,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -2569,16 +2569,16 @@
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -2596,22 +2596,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -2629,22 +2629,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -2662,22 +2662,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -2695,22 +2695,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -2728,22 +2728,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -2761,22 +2761,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -2794,22 +2794,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -2827,7 +2827,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -2850,7 +2850,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -2873,7 +2873,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -4018,20 +4018,20 @@
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -4062,7 +4062,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
@@ -4071,7 +4071,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -4083,7 +4083,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -4104,7 +4104,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>15</v>
@@ -4114,7 +4114,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>58</v>
@@ -4123,7 +4123,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -4148,7 +4148,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
@@ -4164,7 +4164,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -4202,16 +4202,16 @@
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -4229,22 +4229,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -4262,22 +4262,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -4295,22 +4295,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -4331,19 +4331,19 @@
         <v>12</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -4361,22 +4361,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -4394,22 +4394,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -4427,22 +4427,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -4460,7 +4460,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -4483,7 +4483,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -4506,7 +4506,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -4668,20 +4668,20 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
@@ -4698,7 +4698,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -4727,7 +4727,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -4739,7 +4739,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -4762,7 +4762,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>58</v>
@@ -4771,7 +4771,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -4804,7 +4804,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -4828,22 +4828,22 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -4861,22 +4861,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -4894,22 +4894,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -4927,22 +4927,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -4960,22 +4960,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -4993,22 +4993,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -5026,22 +5026,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -5059,22 +5059,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -5092,7 +5092,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -5115,7 +5115,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -5138,7 +5138,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -5297,7 +5297,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -5307,26 +5307,26 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -5343,7 +5343,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -5362,7 +5362,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -5374,7 +5374,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -5393,7 +5393,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>58</v>
@@ -5402,7 +5402,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -5426,7 +5426,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>58</v>
@@ -5435,7 +5435,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -5459,22 +5459,22 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -5492,22 +5492,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -5525,22 +5525,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -5558,22 +5558,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -5591,22 +5591,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -5624,22 +5624,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -5657,22 +5657,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -5690,22 +5690,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -5723,7 +5723,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -5746,7 +5746,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -5769,7 +5769,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -6451,16 +6451,16 @@
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="7" t="s">
@@ -6473,7 +6473,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -6483,7 +6483,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>29</v>
@@ -6502,7 +6502,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
@@ -6516,16 +6516,16 @@
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
@@ -6538,7 +6538,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -6557,7 +6557,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>15</v>
@@ -6569,7 +6569,7 @@
         <v>61</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
@@ -6583,16 +6583,16 @@
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
@@ -6605,7 +6605,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
@@ -6615,7 +6615,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>58</v>
@@ -6624,7 +6624,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>15</v>
@@ -6643,16 +6643,16 @@
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="7" t="s">
@@ -6665,7 +6665,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -6684,7 +6684,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>15</v>
@@ -6697,16 +6697,16 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
@@ -6719,7 +6719,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>15</v>
@@ -6729,38 +6729,38 @@
         <v>21</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
@@ -6773,7 +6773,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>15</v>
@@ -6783,7 +6783,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>95</v>
@@ -6792,7 +6792,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>15</v>
@@ -6805,16 +6805,16 @@
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
@@ -6837,7 +6837,7 @@
         <v>22</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>95</v>
@@ -6846,7 +6846,7 @@
         <v>54</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>15</v>
@@ -6859,16 +6859,16 @@
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
@@ -6881,7 +6881,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
@@ -6891,38 +6891,38 @@
         <v>23</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
@@ -6935,7 +6935,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>15</v>
@@ -6945,38 +6945,38 @@
         <v>24</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7" t="s">
@@ -6989,7 +6989,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -6999,38 +6999,38 @@
         <v>25</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
@@ -7053,38 +7053,38 @@
         <v>9</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="7" t="s">
@@ -7097,7 +7097,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>15</v>
@@ -7107,38 +7107,38 @@
         <v>10</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
@@ -7161,7 +7161,7 @@
         <v>26</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
@@ -7173,16 +7173,16 @@
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
@@ -7195,7 +7195,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>15</v>
@@ -7205,7 +7205,7 @@
         <v>35</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
@@ -7217,10 +7217,10 @@
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>15</v>
@@ -7249,7 +7249,7 @@
         <v>54</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
@@ -7261,10 +7261,10 @@
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>15</v>
@@ -7282,7 +7282,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -7290,16 +7290,16 @@
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -7311,7 +7311,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>15</v>
@@ -7319,16 +7319,16 @@
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -7340,7 +7340,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>15</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>15</v>
@@ -7369,7 +7369,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -7377,10 +7377,10 @@
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>15</v>
@@ -7398,7 +7398,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>15</v>
@@ -7406,10 +7406,10 @@
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
@@ -7427,7 +7427,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>15</v>
@@ -7435,16 +7435,16 @@
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
@@ -7456,7 +7456,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>15</v>
@@ -7464,16 +7464,16 @@
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
@@ -7485,7 +7485,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>15</v>
@@ -7493,16 +7493,16 @@
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
@@ -7514,7 +7514,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>15</v>
@@ -7522,10 +7522,10 @@
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>15</v>
@@ -7543,7 +7543,7 @@
         <v>15</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>15</v>
@@ -7551,16 +7551,16 @@
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
@@ -7572,7 +7572,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>15</v>
@@ -7580,16 +7580,16 @@
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
@@ -7601,7 +7601,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>15</v>
@@ -7609,16 +7609,16 @@
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
@@ -7630,7 +7630,7 @@
         <v>15</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -7638,10 +7638,10 @@
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>15</v>
@@ -7659,7 +7659,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>15</v>
@@ -7667,10 +7667,10 @@
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>15</v>
@@ -7688,7 +7688,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>15</v>
@@ -7696,16 +7696,16 @@
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
@@ -7717,7 +7717,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>15</v>
@@ -7725,16 +7725,16 @@
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
@@ -7754,16 +7754,16 @@
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
@@ -7783,16 +7783,16 @@
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
@@ -7812,16 +7812,16 @@
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
@@ -7833,7 +7833,7 @@
         <v>15</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>15</v>
@@ -7998,10 +7998,10 @@
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>15</v>
@@ -8010,7 +8010,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="7" t="s">
@@ -8020,7 +8020,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -8033,26 +8033,26 @@
         <v>15</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R3" s="14"/>
       <c r="S3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>37</v>
@@ -8066,10 +8066,10 @@
     </row>
     <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>15</v>
@@ -8078,7 +8078,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="7" t="s">
@@ -8088,7 +8088,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -8110,7 +8110,7 @@
         <v>15</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>15</v>
@@ -8136,10 +8136,10 @@
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>15</v>
@@ -8148,7 +8148,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="7" t="s">
@@ -8158,7 +8158,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
@@ -8171,7 +8171,7 @@
         <v>16</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>58</v>
@@ -8180,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>15</v>
@@ -8199,19 +8199,19 @@
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="7" t="s">
@@ -8221,7 +8221,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -8243,7 +8243,7 @@
         <v>16</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>15</v>
@@ -8256,19 +8256,19 @@
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
@@ -8278,7 +8278,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>15</v>
@@ -8291,41 +8291,41 @@
         <v>21</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V7" s="9"/>
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="7" t="s">
@@ -8335,7 +8335,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>15</v>
@@ -8348,32 +8348,32 @@
         <v>18</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>95</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V8" s="9"/>
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>15</v>
@@ -8382,7 +8382,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="7" t="s">
@@ -8392,7 +8392,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -8405,41 +8405,41 @@
         <v>22</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>95</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="7" t="s">
@@ -8449,7 +8449,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
@@ -8462,32 +8462,32 @@
         <v>23</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>15</v>
@@ -8496,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
@@ -8506,7 +8506,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>15</v>
@@ -8519,32 +8519,32 @@
         <v>24</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V11" s="9"/>
       <c r="W11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
@@ -8553,7 +8553,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7" t="s">
@@ -8563,7 +8563,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -8576,32 +8576,32 @@
         <v>25</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>15</v>
@@ -8610,7 +8610,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="7" t="s">
@@ -8620,7 +8620,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>15</v>
@@ -8633,22 +8633,22 @@
         <v>9</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="7"/>
@@ -8670,22 +8670,22 @@
         <v>10</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="7"/>
@@ -8707,7 +8707,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="14"/>
@@ -8734,7 +8734,7 @@
         <v>35</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="14"/>
@@ -8761,7 +8761,7 @@
         <v>54</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="14"/>
@@ -9163,10 +9163,10 @@
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -9176,29 +9176,29 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
@@ -9216,23 +9216,23 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>58</v>
@@ -9241,7 +9241,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>15</v>
@@ -9253,7 +9253,7 @@
         <v>61</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>15</v>
@@ -9308,10 +9308,10 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>58</v>
@@ -9320,7 +9320,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>15</v>
@@ -9344,25 +9344,25 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
@@ -9380,25 +9380,25 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>95</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
@@ -9416,25 +9416,25 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>95</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
@@ -9452,25 +9452,25 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
@@ -9488,25 +9488,25 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
@@ -9524,25 +9524,25 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
@@ -9560,25 +9560,25 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
@@ -9596,25 +9596,25 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
@@ -9632,10 +9632,10 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
@@ -9658,10 +9658,10 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
@@ -9684,10 +9684,10 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
@@ -9859,10 +9859,10 @@
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -9872,20 +9872,20 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
@@ -9902,13 +9902,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>81</v>
@@ -9917,10 +9917,10 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -9930,7 +9930,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
@@ -9939,7 +9939,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -9951,7 +9951,7 @@
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -9962,7 +9962,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
@@ -9991,7 +9991,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -10023,7 +10023,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>58</v>
@@ -10032,7 +10032,7 @@
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>15</v>
@@ -10066,16 +10066,16 @@
         <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -10103,16 +10103,16 @@
         <v>95</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -10134,22 +10134,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -10169,22 +10169,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -10204,22 +10204,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -10239,22 +10239,22 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -10274,22 +10274,22 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -10309,22 +10309,22 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -10344,7 +10344,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -10369,7 +10369,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -10394,7 +10394,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
